--- a/Data/data_template_key.xlsx
+++ b/Data/data_template_key.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristakraskura/Github_repositories/fish_foodweb_pfas_model_Sun_etal_forR/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristakraskura/Github_repositories/KK_etal_PFAS_food_web_model/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A38456-D5C5-C046-9CB4-E1C8EF01E232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE838794-851A-F447-9922-B7953986F57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="620" windowWidth="15720" windowHeight="15320" firstSheet="2" activeTab="5" xr2:uid="{A96B506E-DCC1-9B47-8B7E-9FBFB9805311}"/>
+    <workbookView xWindow="860" yWindow="620" windowWidth="15720" windowHeight="15320" firstSheet="2" activeTab="4" xr2:uid="{A96B506E-DCC1-9B47-8B7E-9FBFB9805311}"/>
   </bookViews>
   <sheets>
     <sheet name="dietData_max" sheetId="2" r:id="rId1"/>
@@ -687,9 +687,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -727,7 +727,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -833,7 +833,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -975,7 +975,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2470,7 +2470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F9C905-3303-864A-88D2-1597AE5687B9}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -2761,7 +2761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F57C95D-6812-8748-A7A3-74DDE4FFF652}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
